--- a/biology/Botanique/Edmund_Gilbert_Baker/Edmund_Gilbert_Baker.xlsx
+++ b/biology/Botanique/Edmund_Gilbert_Baker/Edmund_Gilbert_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmund Gilbert Baker, né en 1864 et mort en 1949, est un collectionneur de plantes et botaniste britannique. Il est le fils de John Gilbert Baker.
 </t>
@@ -511,13 +523,15 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synopsis de Malveae, 1895
 Les usines de Milanji, Nyassa-land . Con James Britten. 1894
 Catalogue des plantes collectées par M. et Mme. PA Talbot dans le district d'Oban, au sud du Nigeria. Londres (impreso por orden de Trustees, British Museum (Natural History)
-Leguminosae of Tropical Africa, partie 1, [1] -215, en 1926; partie 2, [i-iii], 216-607, juillet 1929; partie 3, [i-iii], 608-693, de 1930[1].
-Parmi les espèces qu'il a nommées figurent Banksia burdettii et Banksia ashbyi[2].
+Leguminosae of Tropical Africa, partie 1,  -215, en 1926; partie 2, [i-iii], 216-607, juillet 1929; partie 3, [i-iii], 608-693, de 1930.
+Parmi les espèces qu'il a nommées figurent Banksia burdettii et Banksia ashbyi.
 </t>
         </is>
       </c>
